--- a/Listas de precios/minorista/BULON CABEZA HEXAGONAL DISMAY.xlsx
+++ b/Listas de precios/minorista/BULON CABEZA HEXAGONAL DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1764,73 +1764,73 @@
     <row r="97" ht="18" customHeight="1" s="17"/>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B62:E62"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B62:E62"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B89:C89"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B75:C75"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/BULON CABEZA HEXAGONAL DISMAY.xlsx
+++ b/Listas de precios/minorista/BULON CABEZA HEXAGONAL DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1764,73 +1764,73 @@
     <row r="97" ht="18" customHeight="1" s="17"/>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B62:E62"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B82:C82"/>
     <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B83:C83"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/BULON CABEZA HEXAGONAL DISMAY.xlsx
+++ b/Listas de precios/minorista/BULON CABEZA HEXAGONAL DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1764,73 +1764,73 @@
     <row r="97" ht="18" customHeight="1" s="17"/>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B62:E62"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B62:E62"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B89:C89"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B75:C75"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/BULON CABEZA HEXAGONAL DISMAY.xlsx
+++ b/Listas de precios/minorista/BULON CABEZA HEXAGONAL DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="n">
-        <v>45406</v>
+        <v>45415</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C34" s="14" t="n"/>
       <c r="D34" s="6" t="n">
-        <v>2613.07</v>
+        <v>1428.751</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="17">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C66" s="14" t="n"/>
       <c r="D66" s="6" t="n">
-        <v>4896.86</v>
+        <v>2602.427</v>
       </c>
     </row>
     <row r="67" ht="18" customHeight="1" s="17">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="C67" s="14" t="n"/>
       <c r="D67" s="6" t="n">
-        <v>4940.37</v>
+        <v>2621.453</v>
       </c>
     </row>
     <row r="68" ht="18" customHeight="1" s="17">
